--- a/Dashboard/Interactive_Project_Costing_Dashboard.xlsx
+++ b/Dashboard/Interactive_Project_Costing_Dashboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Resume\2025\July\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Resume\2025\July\Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D99BD32-600D-4A71-A702-035BDD250404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79963748-6440-40EF-991A-900F63EC6E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,30 +17,36 @@
     <sheet name="Cost Breakdown" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Time Series Trend" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Dashboard" sheetId="6" r:id="rId4"/>
+    <sheet name="gauge chart" sheetId="8" state="hidden" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Interactive_ProjectCostingDashboard.xlsxCost1" hidden="1">Cost[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Interactive_ProjectCostingDashboard.xlsxCost" hidden="1">Cost[]</definedName>
+    <definedName name="filteredList">'[1]type ahead combo'!$E$6:$E$52</definedName>
+    <definedName name="filterList">getList('[1]type ahead combo'!$C$6:$C$52,'[1]type ahead combo'!$F$7)</definedName>
     <definedName name="Slicer_Category">#N/A</definedName>
     <definedName name="Slicer_Project">#N/A</definedName>
     <definedName name="Slicer_Project1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="104" r:id="rId5"/>
-    <pivotCache cacheId="121" r:id="rId6"/>
-    <pivotCache cacheId="167" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="15" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="23" r:id="rId8"/>
+        <pivotCache cacheId="3" r:id="rId10"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId9"/>
-        <x14:slicerCache r:id="rId10"/>
         <x14:slicerCache r:id="rId11"/>
+        <x14:slicerCache r:id="rId12"/>
+        <x14:slicerCache r:id="rId13"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -81,7 +87,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Cost" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Interactive_ProjectCostingDashboard.xlsxCost1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Interactive_ProjectCostingDashboard.xlsxCost"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -90,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="45">
   <si>
     <t>Project</t>
   </si>
@@ -190,12 +196,48 @@
   <si>
     <t>Actual.</t>
   </si>
+  <si>
+    <t>Gauge Value (0 to 100)</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>these too</t>
+  </si>
+  <si>
+    <t>Change this</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Gauge</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>GV</t>
+  </si>
+  <si>
+    <t>GV+</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,14 +268,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFD9D9D9"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="23"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color indexed="23"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,8 +305,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="60"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -372,16 +461,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="hair">
+        <color indexed="22"/>
+      </right>
+      <top style="hair">
+        <color indexed="22"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="hair">
+        <color indexed="22"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="hair">
+        <color indexed="22"/>
+      </right>
+      <top style="hair">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="hair">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -395,11 +665,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -408,22 +675,65 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{692BDA0C-81EA-4774-9686-CE0023F5D765}"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -457,32 +767,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+      <border outline="0">
+        <top style="thin">
           <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -490,13 +778,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -530,16 +811,45 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color auto="1"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -596,7 +906,9 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
@@ -639,16 +951,6 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-FAAC-458F-B7B6-1A1A2E538A05}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -785,6 +1087,955 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.1322676159838603E-2"/>
+          <c:y val="3.1056910214650756E-2"/>
+          <c:w val="0.95952042719273711"/>
+          <c:h val="0.9317073064395226"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-03A4-43FE-BC92-0A248A651C75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:srgbClr val="C0C0C0"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-03A4-43FE-BC92-0A248A651C75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-03A4-43FE-BC92-0A248A651C75}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="25400">
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1075" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                      <a:ea typeface="Arial"/>
+                      <a:cs typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-03A4-43FE-BC92-0A248A651C75}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'gauge chart'!$F$11:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gauge chart'!$F$12:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-03A4-43FE-BC92-0A248A651C75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="270"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="550" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.6234283201397406E-2"/>
+          <c:y val="2.9412667564885527E-2"/>
+          <c:w val="0.96181289555545502"/>
+          <c:h val="0.95171210603815259"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-CEEE-4122-A5F1-7CADC613F5A0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-CEEE-4122-A5F1-7CADC613F5A0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-CEEE-4122-A5F1-7CADC613F5A0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-CEEE-4122-A5F1-7CADC613F5A0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-CEEE-4122-A5F1-7CADC613F5A0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gauge chart'!$B$12:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Red</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yellow</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>End</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Blank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gauge chart'!$C$12:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-CEEE-4122-A5F1-7CADC613F5A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="270"/>
+        <c:holeSize val="65"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="550" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.3170709501784268E-2"/>
+          <c:y val="1.0506714046537055E-3"/>
+          <c:w val="0.95960710723160592"/>
+          <c:h val="0.93571460516112681"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-987B-425D-B923-B30639C866E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:srgbClr val="C0C0C0"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-987B-425D-B923-B30639C866E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-987B-425D-B923-B30639C866E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="25400">
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1075" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                      <a:ea typeface="Arial"/>
+                      <a:cs typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-987B-425D-B923-B30639C866E3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'gauge chart'!$F$11:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gauge chart'!$F$12:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-987B-425D-B923-B30639C866E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="270"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="550" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.3170709501784268E-2"/>
+          <c:y val="1.0506714046537055E-3"/>
+          <c:w val="0.95960710723160592"/>
+          <c:h val="0.93571460516112681"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C552-4570-9695-26763467541E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:srgbClr val="C0C0C0"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C552-4570-9695-26763467541E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C552-4570-9695-26763467541E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="25400">
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1075" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                      <a:ea typeface="Arial"/>
+                      <a:cs typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-C552-4570-9695-26763467541E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'gauge chart'!$I$11:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gauge chart'!$F$12:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C552-4570-9695-26763467541E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="270"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="550" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3404,22 +4655,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>343471</c:v>
+                  <c:v>87734</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>285303</c:v>
+                  <c:v>72987</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>226075</c:v>
+                  <c:v>57440</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171110</c:v>
+                  <c:v>43393</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111640</c:v>
+                  <c:v>27640</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53821</c:v>
+                  <c:v>13082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3506,22 +4757,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>425000</c:v>
+                  <c:v>105000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>354166.66666666669</c:v>
+                  <c:v>87500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>283333.33333333337</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>212500</c:v>
+                  <c:v>52500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>141666.66666666669</c:v>
+                  <c:v>35000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70833.333333333343</c:v>
+                  <c:v>17500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3608,22 +4859,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>425000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>354166.66666666663</c:v>
+                  <c:v>83333.333333333343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>283333.33333333337</c:v>
+                  <c:v>66666.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>212500</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>141666.66666666669</c:v>
+                  <c:v>33333.333333333343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70833.333333333328</c:v>
+                  <c:v>16666.666666666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3872,17 +5123,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13867588981283882"/>
-          <c:y val="9.6461202658946005E-2"/>
-          <c:w val="0.74676617525613032"/>
-          <c:h val="0.82375237889078301"/>
+          <c:x val="2.6234283201397406E-2"/>
+          <c:y val="2.9412667564885527E-2"/>
+          <c:w val="0.96181289555545502"/>
+          <c:h val="0.95171210603815259"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -3890,25 +5141,23 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent1"/>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-6EE0-4654-A542-EA9490853E2A}"/>
+                <c16:uniqueId val="{00000000-54FC-4728-B34C-FB5AB4A0486F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3919,170 +5168,167 @@
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent2"/>
-                </a:innerShdw>
-              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-6EE0-4654-A542-EA9490853E2A}"/>
+                <c16:uniqueId val="{00000002-54FC-4728-B34C-FB5AB4A0486F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-6EE0-4654-A542-EA9490853E2A}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-54FC-4728-B34C-FB5AB4A0486F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-54FC-4728-B34C-FB5AB4A0486F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:noFill/>
-              <a:ln>
+              <a:ln w="25400">
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-54FC-4728-B34C-FB5AB4A0486F}"/>
+              </c:ext>
             </c:extLst>
-          </c:dLbls>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gauge chart'!$B$12:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Red</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yellow</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>End</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Blank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$G$10:$G$11</c:f>
+              <c:f>'gauge chart'!$C$12:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.7619047619047672E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95238095238095233</c:v>
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6EE0-4654-A542-EA9490853E2A}"/>
+              <c16:uniqueId val="{00000009-54FC-4728-B34C-FB5AB4A0486F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="62"/>
+        <c:firstSliceAng val="270"/>
+        <c:holeSize val="65"/>
       </c:doughnutChart>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:noFill/>
     </a:ln>
-    <a:effectLst>
-      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-        <a:prstClr val="black">
-          <a:alpha val="40000"/>
-        </a:prstClr>
-      </a:outerShdw>
-    </a:effectLst>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="550" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4102,17 +5348,260 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13867588981283882"/>
-          <c:y val="9.6461202658946005E-2"/>
-          <c:w val="0.74676617525613032"/>
-          <c:h val="0.82375237889078301"/>
+          <c:x val="4.3170709501784268E-2"/>
+          <c:y val="1.0506714046537055E-3"/>
+          <c:w val="0.95960710723160592"/>
+          <c:h val="0.93571460516112681"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0D98-47C0-BC15-B4F3008C1247}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:srgbClr val="C0C0C0"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0D98-47C0-BC15-B4F3008C1247}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0D98-47C0-BC15-B4F3008C1247}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:numFmt formatCode="#,##0;[Red]#,##0" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="25400">
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1075" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                      <a:ea typeface="Arial"/>
+                      <a:cs typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0D98-47C0-BC15-B4F3008C1247}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00;[Red]#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'gauge chart'!$F$11:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gauge chart'!$F$12:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0D98-47C0-BC15-B4F3008C1247}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="270"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="550" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.6234283201397406E-2"/>
+          <c:y val="2.9412667564885527E-2"/>
+          <c:w val="0.96181289555545502"/>
+          <c:h val="0.95171210603815259"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -4120,25 +5609,23 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent1"/>
-                </a:innerShdw>
-              </a:effectLst>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-AE5D-451E-8CEA-8611F203AD97}"/>
+                <c16:uniqueId val="{00000000-9D7B-4E4B-938C-71DF8F9EC35F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4149,31 +5636,301 @@
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:innerShdw blurRad="114300">
-                  <a:schemeClr val="accent2"/>
-                </a:innerShdw>
-              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-AE5D-451E-8CEA-8611F203AD97}"/>
+                <c16:uniqueId val="{00000002-9D7B-4E4B-938C-71DF8F9EC35F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-9D7B-4E4B-938C-71DF8F9EC35F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-9D7B-4E4B-938C-71DF8F9EC35F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-9D7B-4E4B-938C-71DF8F9EC35F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gauge chart'!$B$12:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Red</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yellow</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>End</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Blank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gauge chart'!$C$12:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-9D7B-4E4B-938C-71DF8F9EC35F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="270"/>
+        <c:holeSize val="65"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="550" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.3170709501784268E-2"/>
+          <c:y val="1.0506714046537055E-3"/>
+          <c:w val="0.95960710723160592"/>
+          <c:h val="0.93571460516112681"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2711-4267-BD30-DC0A3AE24C5D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:srgbClr val="C0C0C0"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2711-4267-BD30-DC0A3AE24C5D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2711-4267-BD30-DC0A3AE24C5D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln w="25400">
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1075" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial"/>
+                      <a:ea typeface="Arial"/>
+                      <a:cs typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-AE5D-451E-8CEA-8611F203AD97}"/>
+                  <c16:uniqueId val="{00000003-2711-4267-BD30-DC0A3AE24C5D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4184,135 +5941,328 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'gauge chart'!$I$11:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dashboard!$G$12:$G$13</c:f>
+              <c:f>'gauge chart'!$F$12:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-0.17647058823529416</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1764705882352942</c:v>
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AE5D-451E-8CEA-8611F203AD97}"/>
+              <c16:uniqueId val="{00000006-2711-4267-BD30-DC0A3AE24C5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="62"/>
-      </c:doughnutChart>
+        <c:firstSliceAng val="270"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:noFill/>
     </a:ln>
-    <a:effectLst>
-      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-        <a:prstClr val="black">
-          <a:alpha val="40000"/>
-        </a:prstClr>
-      </a:outerShdw>
-    </a:effectLst>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="550" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.7021855560649328E-2"/>
+          <c:y val="2.941273616894953E-2"/>
+          <c:w val="0.96173483917668701"/>
+          <c:h val="0.94961119631179902"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-A07E-4032-B690-B2B93315B7BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF6600"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A07E-4032-B690-B2B93315B7BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-A07E-4032-B690-B2B93315B7BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99CC00"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-A07E-4032-B690-B2B93315B7BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-A07E-4032-B690-B2B93315B7BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gauge chart'!$B$12:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Red</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yellow</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>End</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Blank</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gauge chart'!$C$12:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-A07E-4032-B690-B2B93315B7BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="270"/>
+        <c:holeSize val="65"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="550" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4439,86 +6389,6 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6632,1088 +8502,178 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="252">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="252">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA550ED1-23A6-BACC-2F10-54928A473C33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667250" y="652462"/>
+          <a:ext cx="2495550" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="perspectiveFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBE6D1A-D2E7-4100-ADE8-9802F3864B7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="661987"/>
+          <a:ext cx="2495550" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="perspectiveFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>79513</xdr:colOff>
+      <xdr:colOff>79511</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>13252</xdr:rowOff>
+      <xdr:rowOff>44727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>79513</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>159025</xdr:rowOff>
+      <xdr:colOff>79511</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7728,8 +8688,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="79513" y="569843"/>
-          <a:ext cx="1828800" cy="8991599"/>
+          <a:off x="79511" y="640040"/>
+          <a:ext cx="1828800" cy="8784948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7903,15 +8863,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>230588</xdr:colOff>
+      <xdr:colOff>221744</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>35781</xdr:rowOff>
+      <xdr:rowOff>46668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>283928</xdr:colOff>
+      <xdr:colOff>275084</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:rowOff>68983</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7987,8 +8947,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Project">
@@ -8011,7 +8971,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8164,8 +9124,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Category">
@@ -8188,7 +9148,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8341,8 +9301,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>15242</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="Project 1">
@@ -8365,7 +9325,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8591,44 +9551,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>408829</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>45390</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>462169</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>75870</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A156A180-838A-47E4-845F-6D01559F65B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>584279</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -8686,44 +9608,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>595563</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47267</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>65315</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>77748</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Chart 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97531C70-1A2A-482D-9D05-DA7A94A600F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -8858,6 +9742,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="l"/>
             <a:t>⚠️ Behind Schedule</a:t>
           </a:fld>
           <a:endParaRPr lang="en-IN" sz="1000"/>
@@ -8866,7 +9751,878 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>334473</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495390</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90231</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F2F1E04-CA49-45C8-994A-701F5353E80A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>55318</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>116132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>179307</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80635</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4641D222-58A9-4B48-85F6-B6CBDB4C4B7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>94243</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85469</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Chart 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956091F6-0CA3-453B-88A3-F22DA1EE8846}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>538164</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Chart 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15BDFF0C-51E2-441A-994B-A9E5C1CC6DF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B88A81-E8A3-414D-A04E-2DC04B5008BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{616C004B-613E-4DF9-A140-5CE4C3CF43CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1440180</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB23178-64A7-47E6-A768-163E1747C117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>991561</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>145109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>46681</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>129869</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF588692-5AB9-4DAF-B497-C72AFBC6C4A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Line 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D94D03-BD43-4D9D-980C-7ED8C62CAD86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3070860" y="853440"/>
+          <a:ext cx="327660" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF6600" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="53"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01ED6557-0A8B-49DC-83DA-78BF5B1E981B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1905000" y="1089660"/>
+          <a:ext cx="137160" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 19444"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF6600" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="53"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>597050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>119230</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A8B36D-3468-43AD-B701-72A6EC52D78C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="bar with a twist"/>
+      <sheetName val="data around the clock"/>
+      <sheetName val="clock using donut chart - fun"/>
+      <sheetName val="symbols in axis labels"/>
+      <sheetName val="type ahead combo"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Date with my sheet"/>
+      <sheetName val="gauge chart"/>
+      <sheetName val="dice throws"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>Mumbai</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Mumbai</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>Karachi</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Moscow</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>a</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>Istanbul</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>Mexico City</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>Delhi</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Lima</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>São Paulo</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Ho Chi Minh City</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>Moscow</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Ahmedabad</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>Seoul</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>Yokohama</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>Shanghai</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>Mexico City</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>Jakarta</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>Tokyo</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>New York City</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>Lagos</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>Kinshasa</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>Lima</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>Tehran</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>Beijing</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>London</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>Hong Kong</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>Bogotá</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>Cairo</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27" t="str">
+            <v>Bangkok</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>Lahore</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>Dhaka</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>Rio de Janeiro</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>Baghdad</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32" t="str">
+            <v>Bangalore</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33" t="str">
+            <v>Kolkata</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34" t="str">
+            <v>Tianjin</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35" t="str">
+            <v>Yangon</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36" t="str">
+            <v>Santiago</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37" t="str">
+            <v>Guangzhou</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38" t="str">
+            <v>Saint Petersburg</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39" t="str">
+            <v>Wuhan</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40" t="str">
+            <v>Chennai</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41" t="str">
+            <v>Riyadh</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42" t="str">
+            <v>Singapore</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43" t="str">
+            <v>Ho Chi Minh City</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44" t="str">
+            <v>Alexandria</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45" t="str">
+            <v>Chongqing</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46" t="str">
+            <v>Shenyang</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47" t="str">
+            <v>Hyderabad</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48" t="str">
+            <v>Ankara</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49" t="str">
+            <v>Ahmedabad</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50" t="str">
+            <v>Los Angeles</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51" t="str">
+            <v>Abidjan</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52" t="str">
+            <v>Yokohama</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8986,7 +10742,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="User" refreshedDate="45849.779884606483" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{9492F133-33D6-4C3C-9EDD-5CFC8AD594D0}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="User" refreshedDate="45849.995326504628" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{9492F133-33D6-4C3C-9EDD-5CFC8AD594D0}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Sum of Cost]" caption="Sum of Cost" numFmtId="0" hierarchy="5" level="32767"/>
@@ -9361,7 +11117,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4111A915-2A57-4FCA-88C1-F783C477DDA0}" name="PivotTable5" cacheId="104" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4111A915-2A57-4FCA-88C1-F783C477DDA0}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
   <location ref="H2:J8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -9554,7 +11310,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8FF9400-47C9-4A2F-820C-E93A087EB55F}" name="PivotTable3" cacheId="167" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D8FF9400-47C9-4A2F-820C-E93A087EB55F}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="E2:F8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -9642,15 +11398,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{563443F0-06FF-47F7-A6A0-CE9A64FA9419}" name="PivotTable6" cacheId="121" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="36">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{563443F0-06FF-47F7-A6A0-CE9A64FA9419}" name="PivotTable6" cacheId="1" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="36">
   <location ref="G3:J10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
       <items count="5">
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9818,9 +11574,9 @@
     <tabular pivotCacheId="1111102937">
       <items count="4">
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="3" s="1"/>
+        <i x="1"/>
+        <i x="2"/>
+        <i x="3"/>
       </items>
     </tabular>
   </data>
@@ -9836,7 +11592,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05340EA0-CFAD-4430-8949-81F415060E0F}" name="Cost" displayName="Cost" ref="A1:C21" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05340EA0-CFAD-4430-8949-81F415060E0F}" name="Cost" displayName="Cost" ref="A1:C21" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:C21" xr:uid="{05340EA0-CFAD-4430-8949-81F415060E0F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{9F90CB8C-D6CF-4078-94C5-1CCD0D948294}" name="Project"/>
@@ -9848,7 +11604,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7BF220C-E051-4B30-B59D-742F562C1855}" name="Trend" displayName="Trend" ref="A1:E25" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7BF220C-E051-4B30-B59D-742F562C1855}" name="Trend" displayName="Trend" ref="A1:E25" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:E25" xr:uid="{A7BF220C-E051-4B30-B59D-742F562C1855}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{52C1C7CA-D246-46F3-9FB6-F233006C4119}" name="Project"/>
@@ -10207,7 +11963,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10427,13 +12183,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10447,16 +12203,16 @@
       <c r="C2">
         <v>6785.13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10470,13 +12226,13 @@
       <c r="C3">
         <v>43523.26</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="51">
         <v>2452.6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I3" t="s">
@@ -10496,19 +12252,19 @@
       <c r="C4">
         <v>19038.79</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="51">
         <v>6785.13</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="51">
         <v>2452.6</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="51">
         <v>2452.6</v>
       </c>
     </row>
@@ -10522,19 +12278,19 @@
       <c r="C5">
         <v>13200.21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="51">
         <v>43523.26</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="51">
         <v>25236.29</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="51">
         <v>25236.29</v>
       </c>
     </row>
@@ -10548,19 +12304,19 @@
       <c r="C6">
         <v>2452.6</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="51">
         <v>13200.21</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="51">
         <v>3210.78</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="51">
         <v>3210.78</v>
       </c>
     </row>
@@ -10574,19 +12330,19 @@
       <c r="C7">
         <v>3476.13</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="51">
         <v>19038.79</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="51">
         <v>15512.16</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="51">
         <v>15512.16</v>
       </c>
     </row>
@@ -10600,19 +12356,19 @@
       <c r="C8">
         <v>1226.48</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="51">
         <v>84999.99</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="51">
         <v>46411.83</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="51">
         <v>46411.83</v>
       </c>
     </row>
@@ -10780,9 +12536,9 @@
   <cols>
     <col min="5" max="5" width="9.88671875" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
@@ -10794,19 +12550,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -10814,7 +12570,7 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>45658</v>
       </c>
       <c r="C2">
@@ -10831,7 +12587,7 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>45689</v>
       </c>
       <c r="C3">
@@ -10843,7 +12599,7 @@
       <c r="E3">
         <v>35000</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
@@ -10860,7 +12616,7 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>45717</v>
       </c>
       <c r="C4">
@@ -10872,24 +12628,24 @@
       <c r="E4">
         <v>52500</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>45809</v>
       </c>
-      <c r="H4" s="6">
-        <v>343471</v>
-      </c>
-      <c r="I4" s="6">
-        <v>425000</v>
-      </c>
-      <c r="J4" s="6">
-        <v>425000</v>
+      <c r="H4" s="5">
+        <v>87734</v>
+      </c>
+      <c r="I4" s="5">
+        <v>105000</v>
+      </c>
+      <c r="J4" s="5">
+        <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>45748</v>
       </c>
       <c r="C5">
@@ -10901,24 +12657,24 @@
       <c r="E5">
         <v>70000</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>45778</v>
       </c>
-      <c r="H5" s="6">
-        <v>285303</v>
-      </c>
-      <c r="I5" s="6">
-        <v>354166.66666666669</v>
-      </c>
-      <c r="J5" s="6">
-        <v>354166.66666666663</v>
+      <c r="H5" s="5">
+        <v>72987</v>
+      </c>
+      <c r="I5" s="5">
+        <v>87500</v>
+      </c>
+      <c r="J5" s="5">
+        <v>83333.333333333343</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>45778</v>
       </c>
       <c r="C6">
@@ -10930,24 +12686,24 @@
       <c r="E6">
         <v>87500</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>45748</v>
       </c>
-      <c r="H6" s="6">
-        <v>226075</v>
-      </c>
-      <c r="I6" s="6">
-        <v>283333.33333333337</v>
-      </c>
-      <c r="J6" s="6">
-        <v>283333.33333333337</v>
+      <c r="H6" s="5">
+        <v>57440</v>
+      </c>
+      <c r="I6" s="5">
+        <v>70000</v>
+      </c>
+      <c r="J6" s="5">
+        <v>66666.666666666672</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>45809</v>
       </c>
       <c r="C7">
@@ -10959,24 +12715,24 @@
       <c r="E7">
         <v>105000</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>45717</v>
       </c>
-      <c r="H7" s="6">
-        <v>171110</v>
-      </c>
-      <c r="I7" s="6">
-        <v>212500</v>
-      </c>
-      <c r="J7" s="6">
-        <v>212500</v>
+      <c r="H7" s="5">
+        <v>43393</v>
+      </c>
+      <c r="I7" s="5">
+        <v>52500</v>
+      </c>
+      <c r="J7" s="5">
+        <v>50000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>45658</v>
       </c>
       <c r="C8">
@@ -10988,24 +12744,24 @@
       <c r="E8">
         <v>19166.666666666672</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>45689</v>
       </c>
-      <c r="H8" s="6">
-        <v>111640</v>
-      </c>
-      <c r="I8" s="6">
-        <v>141666.66666666669</v>
-      </c>
-      <c r="J8" s="6">
-        <v>141666.66666666669</v>
+      <c r="H8" s="5">
+        <v>27640</v>
+      </c>
+      <c r="I8" s="5">
+        <v>35000</v>
+      </c>
+      <c r="J8" s="5">
+        <v>33333.333333333343</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>45689</v>
       </c>
       <c r="C9">
@@ -11017,24 +12773,24 @@
       <c r="E9">
         <v>38333.333333333343</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>45658</v>
       </c>
-      <c r="H9" s="6">
-        <v>53821</v>
-      </c>
-      <c r="I9" s="6">
-        <v>70833.333333333343</v>
-      </c>
-      <c r="J9" s="6">
-        <v>70833.333333333328</v>
+      <c r="H9" s="5">
+        <v>13082</v>
+      </c>
+      <c r="I9" s="5">
+        <v>17500</v>
+      </c>
+      <c r="J9" s="5">
+        <v>16666.666666666672</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>45717</v>
       </c>
       <c r="C10">
@@ -11046,24 +12802,24 @@
       <c r="E10">
         <v>57500</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="6">
-        <v>1191420</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1487500</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1487500</v>
+      <c r="H10" s="5">
+        <v>302276</v>
+      </c>
+      <c r="I10" s="5">
+        <v>367500</v>
+      </c>
+      <c r="J10" s="5">
+        <v>350000.00000000006</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>45748</v>
       </c>
       <c r="C11">
@@ -11080,7 +12836,7 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>45778</v>
       </c>
       <c r="C12">
@@ -11097,7 +12853,7 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>45809</v>
       </c>
       <c r="C13">
@@ -11114,7 +12870,7 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>45658</v>
       </c>
       <c r="C14">
@@ -11131,7 +12887,7 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>45689</v>
       </c>
       <c r="C15">
@@ -11148,7 +12904,7 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>45717</v>
       </c>
       <c r="C16">
@@ -11165,7 +12921,7 @@
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>45748</v>
       </c>
       <c r="C17">
@@ -11182,7 +12938,7 @@
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>45778</v>
       </c>
       <c r="C18">
@@ -11199,7 +12955,7 @@
       <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>45809</v>
       </c>
       <c r="C19">
@@ -11216,7 +12972,7 @@
       <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>45658</v>
       </c>
       <c r="C20">
@@ -11233,7 +12989,7 @@
       <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>45689</v>
       </c>
       <c r="C21">
@@ -11250,7 +13006,7 @@
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>45717</v>
       </c>
       <c r="C22">
@@ -11267,7 +13023,7 @@
       <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>45748</v>
       </c>
       <c r="C23">
@@ -11284,7 +13040,7 @@
       <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>45778</v>
       </c>
       <c r="C24">
@@ -11301,7 +13057,7 @@
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>45809</v>
       </c>
       <c r="C25">
@@ -11327,8 +13083,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -11339,1074 +13095,1075 @@
     <col min="4" max="4" width="2.44140625" customWidth="1"/>
     <col min="5" max="17" width="8.88671875" customWidth="1"/>
     <col min="18" max="18" width="2" customWidth="1"/>
+    <col min="19" max="21" width="0" hidden="1" customWidth="1"/>
     <col min="22" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="15"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="18"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="18"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:18" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <f>_xlfn.XLOOKUP($C$3,'Project Summary'!$A$2:$A$5,'Project Summary'!B2:B5)</f>
         <v>100000</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="18"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="21" t="str">
+      <c r="A6" s="14"/>
+      <c r="B6" s="45" t="str">
         <f>IF(G13&lt;1, "⚠️ Over Budget", IF(G11&lt;1, "⚠️ Behind Schedule", "✅ On Track"))</f>
         <v>⚠️ Behind Schedule</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="17" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <f>_xlfn.XLOOKUP($C$3,'Project Summary'!$A$2:$A$5,'Project Summary'!D2:D5)</f>
         <v>105000</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="18"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <f>_xlfn.XLOOKUP($C$3,'Project Summary'!$A$2:$A$5,'Project Summary'!C2:C5)</f>
         <v>85000</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="18"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="16"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="22">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="20">
         <f>1-G9</f>
         <v>0.15000000000000002</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="18"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="16"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="20">
         <f>G7/G5</f>
         <v>0.85</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="18"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="16"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="23">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="21">
         <f>1-G11</f>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="18"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="16"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="21">
         <f>G5/G6</f>
         <v>0.95238095238095233</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="18"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="16"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="23">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="21">
         <f>1-G13</f>
         <v>-0.17647058823529416</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="18"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="16"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="21">
         <f>G5/G7</f>
         <v>1.1764705882352942</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="18"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="18"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="16"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="18"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="16"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="18"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="16"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="18"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="16"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="18"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="18"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="16"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="18"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="18"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="16"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="18"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="16"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="18"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="16"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="18"/>
-      <c r="U24" s="9"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="16"/>
+      <c r="U24" s="8"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="18"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="16"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="18"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="16"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="18"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="16"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="18"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="16"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="18"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="16"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="18"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="16"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="18"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="16"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="18"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="16"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="18"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="16"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="18"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="16"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="18"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="16"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="18"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="16"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="18"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="16"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="18"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="16"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="18"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="16"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="18"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="16"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="18"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="16"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="18"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="16"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="18"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="16"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="18"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="16"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="18"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="16"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="18"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="16"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="18"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="16"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="18"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="16"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="18"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="16"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="18"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="16"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="18"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="16"/>
     </row>
     <row r="52" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="24"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="26"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="24"/>
     </row>
     <row r="54" spans="1:18" ht="4.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
@@ -12450,4 +14207,617 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93CF3B2-C244-4023-8339-23D4815470D8}">
+  <dimension ref="A1:S77"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="8.88671875" style="25"/>
+    <col min="11" max="11" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1" style="25" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="266" width="8.88671875" style="25"/>
+    <col min="267" max="267" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="1" style="25" customWidth="1"/>
+    <col min="269" max="269" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="271" max="522" width="8.88671875" style="25"/>
+    <col min="523" max="523" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="1" style="25" customWidth="1"/>
+    <col min="525" max="525" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="526" max="526" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="527" max="778" width="8.88671875" style="25"/>
+    <col min="779" max="779" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="1" style="25" customWidth="1"/>
+    <col min="781" max="781" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="782" max="782" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="783" max="1034" width="8.88671875" style="25"/>
+    <col min="1035" max="1035" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="1" style="25" customWidth="1"/>
+    <col min="1037" max="1037" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1038" max="1038" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1039" max="1290" width="8.88671875" style="25"/>
+    <col min="1291" max="1291" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="1" style="25" customWidth="1"/>
+    <col min="1293" max="1293" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1294" max="1294" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1295" max="1546" width="8.88671875" style="25"/>
+    <col min="1547" max="1547" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="1" style="25" customWidth="1"/>
+    <col min="1549" max="1549" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1550" max="1550" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1551" max="1802" width="8.88671875" style="25"/>
+    <col min="1803" max="1803" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="1" style="25" customWidth="1"/>
+    <col min="1805" max="1805" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1806" max="1806" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1807" max="2058" width="8.88671875" style="25"/>
+    <col min="2059" max="2059" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="1" style="25" customWidth="1"/>
+    <col min="2061" max="2061" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2062" max="2062" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2063" max="2314" width="8.88671875" style="25"/>
+    <col min="2315" max="2315" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="1" style="25" customWidth="1"/>
+    <col min="2317" max="2317" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2318" max="2318" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2319" max="2570" width="8.88671875" style="25"/>
+    <col min="2571" max="2571" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="1" style="25" customWidth="1"/>
+    <col min="2573" max="2573" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2574" max="2574" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2575" max="2826" width="8.88671875" style="25"/>
+    <col min="2827" max="2827" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="1" style="25" customWidth="1"/>
+    <col min="2829" max="2829" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2830" max="2830" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2831" max="3082" width="8.88671875" style="25"/>
+    <col min="3083" max="3083" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="1" style="25" customWidth="1"/>
+    <col min="3085" max="3085" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3086" max="3086" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3087" max="3338" width="8.88671875" style="25"/>
+    <col min="3339" max="3339" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="1" style="25" customWidth="1"/>
+    <col min="3341" max="3341" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3342" max="3342" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3343" max="3594" width="8.88671875" style="25"/>
+    <col min="3595" max="3595" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="1" style="25" customWidth="1"/>
+    <col min="3597" max="3597" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3598" max="3598" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3599" max="3850" width="8.88671875" style="25"/>
+    <col min="3851" max="3851" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="1" style="25" customWidth="1"/>
+    <col min="3853" max="3853" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3854" max="3854" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3855" max="4106" width="8.88671875" style="25"/>
+    <col min="4107" max="4107" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="1" style="25" customWidth="1"/>
+    <col min="4109" max="4109" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4110" max="4110" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4111" max="4362" width="8.88671875" style="25"/>
+    <col min="4363" max="4363" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="1" style="25" customWidth="1"/>
+    <col min="4365" max="4365" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4366" max="4366" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4367" max="4618" width="8.88671875" style="25"/>
+    <col min="4619" max="4619" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="1" style="25" customWidth="1"/>
+    <col min="4621" max="4621" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4622" max="4622" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4623" max="4874" width="8.88671875" style="25"/>
+    <col min="4875" max="4875" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="1" style="25" customWidth="1"/>
+    <col min="4877" max="4877" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4878" max="4878" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4879" max="5130" width="8.88671875" style="25"/>
+    <col min="5131" max="5131" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="1" style="25" customWidth="1"/>
+    <col min="5133" max="5133" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5134" max="5134" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5135" max="5386" width="8.88671875" style="25"/>
+    <col min="5387" max="5387" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="1" style="25" customWidth="1"/>
+    <col min="5389" max="5389" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5390" max="5390" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5391" max="5642" width="8.88671875" style="25"/>
+    <col min="5643" max="5643" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="1" style="25" customWidth="1"/>
+    <col min="5645" max="5645" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5646" max="5646" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5647" max="5898" width="8.88671875" style="25"/>
+    <col min="5899" max="5899" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="1" style="25" customWidth="1"/>
+    <col min="5901" max="5901" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5902" max="5902" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5903" max="6154" width="8.88671875" style="25"/>
+    <col min="6155" max="6155" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="1" style="25" customWidth="1"/>
+    <col min="6157" max="6157" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6158" max="6158" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6159" max="6410" width="8.88671875" style="25"/>
+    <col min="6411" max="6411" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="1" style="25" customWidth="1"/>
+    <col min="6413" max="6413" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6414" max="6414" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6415" max="6666" width="8.88671875" style="25"/>
+    <col min="6667" max="6667" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="1" style="25" customWidth="1"/>
+    <col min="6669" max="6669" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6670" max="6670" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6671" max="6922" width="8.88671875" style="25"/>
+    <col min="6923" max="6923" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="1" style="25" customWidth="1"/>
+    <col min="6925" max="6925" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6926" max="6926" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6927" max="7178" width="8.88671875" style="25"/>
+    <col min="7179" max="7179" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="1" style="25" customWidth="1"/>
+    <col min="7181" max="7181" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7182" max="7182" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7183" max="7434" width="8.88671875" style="25"/>
+    <col min="7435" max="7435" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="1" style="25" customWidth="1"/>
+    <col min="7437" max="7437" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7438" max="7438" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7439" max="7690" width="8.88671875" style="25"/>
+    <col min="7691" max="7691" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="1" style="25" customWidth="1"/>
+    <col min="7693" max="7693" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7694" max="7694" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7695" max="7946" width="8.88671875" style="25"/>
+    <col min="7947" max="7947" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="1" style="25" customWidth="1"/>
+    <col min="7949" max="7949" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7950" max="7950" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7951" max="8202" width="8.88671875" style="25"/>
+    <col min="8203" max="8203" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="1" style="25" customWidth="1"/>
+    <col min="8205" max="8205" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8206" max="8206" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8207" max="8458" width="8.88671875" style="25"/>
+    <col min="8459" max="8459" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="1" style="25" customWidth="1"/>
+    <col min="8461" max="8461" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8462" max="8462" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8463" max="8714" width="8.88671875" style="25"/>
+    <col min="8715" max="8715" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="1" style="25" customWidth="1"/>
+    <col min="8717" max="8717" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8718" max="8718" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8719" max="8970" width="8.88671875" style="25"/>
+    <col min="8971" max="8971" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="1" style="25" customWidth="1"/>
+    <col min="8973" max="8973" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8974" max="8974" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8975" max="9226" width="8.88671875" style="25"/>
+    <col min="9227" max="9227" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="1" style="25" customWidth="1"/>
+    <col min="9229" max="9229" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9230" max="9230" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9231" max="9482" width="8.88671875" style="25"/>
+    <col min="9483" max="9483" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="1" style="25" customWidth="1"/>
+    <col min="9485" max="9485" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9486" max="9486" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9487" max="9738" width="8.88671875" style="25"/>
+    <col min="9739" max="9739" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="1" style="25" customWidth="1"/>
+    <col min="9741" max="9741" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9742" max="9742" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9743" max="9994" width="8.88671875" style="25"/>
+    <col min="9995" max="9995" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="1" style="25" customWidth="1"/>
+    <col min="9997" max="9997" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9998" max="9998" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9999" max="10250" width="8.88671875" style="25"/>
+    <col min="10251" max="10251" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="1" style="25" customWidth="1"/>
+    <col min="10253" max="10253" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10254" max="10254" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10255" max="10506" width="8.88671875" style="25"/>
+    <col min="10507" max="10507" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="1" style="25" customWidth="1"/>
+    <col min="10509" max="10509" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10510" max="10510" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10511" max="10762" width="8.88671875" style="25"/>
+    <col min="10763" max="10763" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="1" style="25" customWidth="1"/>
+    <col min="10765" max="10765" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10766" max="10766" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10767" max="11018" width="8.88671875" style="25"/>
+    <col min="11019" max="11019" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="1" style="25" customWidth="1"/>
+    <col min="11021" max="11021" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11022" max="11022" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11023" max="11274" width="8.88671875" style="25"/>
+    <col min="11275" max="11275" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="1" style="25" customWidth="1"/>
+    <col min="11277" max="11277" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11278" max="11278" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11279" max="11530" width="8.88671875" style="25"/>
+    <col min="11531" max="11531" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="1" style="25" customWidth="1"/>
+    <col min="11533" max="11533" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11534" max="11534" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11535" max="11786" width="8.88671875" style="25"/>
+    <col min="11787" max="11787" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="1" style="25" customWidth="1"/>
+    <col min="11789" max="11789" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11790" max="11790" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11791" max="12042" width="8.88671875" style="25"/>
+    <col min="12043" max="12043" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="1" style="25" customWidth="1"/>
+    <col min="12045" max="12045" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12046" max="12046" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12047" max="12298" width="8.88671875" style="25"/>
+    <col min="12299" max="12299" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="1" style="25" customWidth="1"/>
+    <col min="12301" max="12301" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12302" max="12302" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12303" max="12554" width="8.88671875" style="25"/>
+    <col min="12555" max="12555" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="1" style="25" customWidth="1"/>
+    <col min="12557" max="12557" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12558" max="12558" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12559" max="12810" width="8.88671875" style="25"/>
+    <col min="12811" max="12811" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="1" style="25" customWidth="1"/>
+    <col min="12813" max="12813" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12814" max="12814" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12815" max="13066" width="8.88671875" style="25"/>
+    <col min="13067" max="13067" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="1" style="25" customWidth="1"/>
+    <col min="13069" max="13069" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13070" max="13070" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13071" max="13322" width="8.88671875" style="25"/>
+    <col min="13323" max="13323" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="1" style="25" customWidth="1"/>
+    <col min="13325" max="13325" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13326" max="13326" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13327" max="13578" width="8.88671875" style="25"/>
+    <col min="13579" max="13579" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="1" style="25" customWidth="1"/>
+    <col min="13581" max="13581" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13582" max="13582" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13583" max="13834" width="8.88671875" style="25"/>
+    <col min="13835" max="13835" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="1" style="25" customWidth="1"/>
+    <col min="13837" max="13837" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13838" max="13838" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13839" max="14090" width="8.88671875" style="25"/>
+    <col min="14091" max="14091" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="1" style="25" customWidth="1"/>
+    <col min="14093" max="14093" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14094" max="14094" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14095" max="14346" width="8.88671875" style="25"/>
+    <col min="14347" max="14347" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="1" style="25" customWidth="1"/>
+    <col min="14349" max="14349" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14350" max="14350" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14351" max="14602" width="8.88671875" style="25"/>
+    <col min="14603" max="14603" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="1" style="25" customWidth="1"/>
+    <col min="14605" max="14605" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14606" max="14606" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14607" max="14858" width="8.88671875" style="25"/>
+    <col min="14859" max="14859" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="1" style="25" customWidth="1"/>
+    <col min="14861" max="14861" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14862" max="14862" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14863" max="15114" width="8.88671875" style="25"/>
+    <col min="15115" max="15115" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="1" style="25" customWidth="1"/>
+    <col min="15117" max="15117" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15118" max="15118" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15119" max="15370" width="8.88671875" style="25"/>
+    <col min="15371" max="15371" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="1" style="25" customWidth="1"/>
+    <col min="15373" max="15373" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15374" max="15374" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15375" max="15626" width="8.88671875" style="25"/>
+    <col min="15627" max="15627" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="1" style="25" customWidth="1"/>
+    <col min="15629" max="15629" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15630" max="15630" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15631" max="15882" width="8.88671875" style="25"/>
+    <col min="15883" max="15883" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="1" style="25" customWidth="1"/>
+    <col min="15885" max="15885" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15886" max="15886" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15887" max="16138" width="8.88671875" style="25"/>
+    <col min="16139" max="16139" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="1" style="25" customWidth="1"/>
+    <col min="16141" max="16141" width="25.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="16142" max="16142" width="13.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="16143" max="16384" width="8.88671875" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="42">
+        <f>ROUND(Dashboard!$G$11,2)</f>
+        <v>0.95</v>
+      </c>
+      <c r="I5" s="42">
+        <f>ROUND(Dashboard!$G$13,2)</f>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="26">
+        <v>45</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="26">
+        <v>55</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="E11" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="50"/>
+      <c r="H11" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="50"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="29">
+        <f>E5</f>
+        <v>0.95</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="43">
+        <f>I5</f>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0.95</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="31">
+        <f>2+SUM(F12:F13)</f>
+        <v>3.05</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="31">
+        <f>2+SUM(I12:I13)</f>
+        <v>3.2800000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="31">
+        <f>SUM(C12:C15)</f>
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="6:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
+    </row>
+    <row r="19" spans="6:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="36"/>
+      <c r="L19" s="37"/>
+    </row>
+    <row r="20" spans="6:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="36"/>
+      <c r="L20" s="37"/>
+    </row>
+    <row r="21" spans="6:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="36"/>
+      <c r="L21" s="37"/>
+    </row>
+    <row r="22" spans="6:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="36"/>
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" spans="6:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="36"/>
+      <c r="L23" s="37"/>
+    </row>
+    <row r="24" spans="6:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="36"/>
+      <c r="L24" s="37"/>
+    </row>
+    <row r="25" spans="6:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="36"/>
+      <c r="L25" s="37"/>
+    </row>
+    <row r="26" spans="6:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="36"/>
+      <c r="L26" s="37"/>
+    </row>
+    <row r="27" spans="6:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="36"/>
+      <c r="L27" s="37"/>
+    </row>
+    <row r="28" spans="6:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="36"/>
+      <c r="L28" s="37"/>
+    </row>
+    <row r="29" spans="6:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="36"/>
+      <c r="L29" s="37"/>
+    </row>
+    <row r="30" spans="6:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+    </row>
+    <row r="31" spans="6:12" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="6:12" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+    </row>
+    <row r="50" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>